--- a/InputData/fuels/FoICbCTBA/Fraction of Industry Covered by Carbon Tax Border Adjustment.xlsx
+++ b/InputData/fuels/FoICbCTBA/Fraction of Industry Covered by Carbon Tax Border Adjustment.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobrien\Dropbox (Energy Innovation)\Desktop\Models\E.U. Models\eps-eu\InputData\fuels\FoICbCTBA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AD579FD-A71B-4E75-80AF-6DE26F503BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA18F23C-1F15-47F8-AD2D-0DA0A7DC5CE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29865" yWindow="3840" windowWidth="25020" windowHeight="13230" activeTab="6" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
+    <workbookView xWindow="60375" yWindow="3090" windowWidth="25140" windowHeight="13185" activeTab="6" xr2:uid="{9AA6BDF2-7B91-4567-88A2-0D83F9E3E450}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,6 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <definedNames>
     <definedName name="CH4_to_CO2e">'[1]Cross-Page Data'!$C$12</definedName>
@@ -37,7 +36,7 @@
     <definedName name="N2O_to_CO2e">'[1]Cross-Page Data'!$C$13</definedName>
     <definedName name="unit_conv">[3]About!$A$123</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -551,7 +550,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -589,6 +588,8 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
@@ -2159,326 +2160,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="Carbon Leakage Risk"/>
-      <sheetName val="Allowance Schedule"/>
-      <sheetName val="ETS Coverage"/>
-      <sheetName val="ETS Price Projections"/>
-      <sheetName val="Calcs"/>
-      <sheetName val="FoICStCT"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2">
-        <row r="9">
-          <cell r="C9">
-            <v>2020</v>
-          </cell>
-          <cell r="D9">
-            <v>2021</v>
-          </cell>
-          <cell r="E9">
-            <v>2022</v>
-          </cell>
-          <cell r="F9">
-            <v>2023</v>
-          </cell>
-          <cell r="G9">
-            <v>2024</v>
-          </cell>
-          <cell r="H9">
-            <v>2025</v>
-          </cell>
-          <cell r="I9">
-            <v>2026</v>
-          </cell>
-          <cell r="J9">
-            <v>2027</v>
-          </cell>
-          <cell r="K9">
-            <v>2028</v>
-          </cell>
-          <cell r="L9">
-            <v>2029</v>
-          </cell>
-          <cell r="M9">
-            <v>2030</v>
-          </cell>
-          <cell r="N9">
-            <v>2031</v>
-          </cell>
-          <cell r="O9">
-            <v>2032</v>
-          </cell>
-          <cell r="P9">
-            <v>2033</v>
-          </cell>
-          <cell r="Q9">
-            <v>2034</v>
-          </cell>
-          <cell r="R9">
-            <v>2035</v>
-          </cell>
-          <cell r="S9">
-            <v>2036</v>
-          </cell>
-          <cell r="T9">
-            <v>2037</v>
-          </cell>
-          <cell r="U9">
-            <v>2038</v>
-          </cell>
-          <cell r="V9">
-            <v>2039</v>
-          </cell>
-          <cell r="W9">
-            <v>2040</v>
-          </cell>
-          <cell r="X9">
-            <v>2041</v>
-          </cell>
-          <cell r="Y9">
-            <v>2042</v>
-          </cell>
-          <cell r="Z9">
-            <v>2043</v>
-          </cell>
-          <cell r="AA9">
-            <v>2044</v>
-          </cell>
-          <cell r="AB9">
-            <v>2045</v>
-          </cell>
-          <cell r="AC9">
-            <v>2046</v>
-          </cell>
-          <cell r="AD9">
-            <v>2047</v>
-          </cell>
-          <cell r="AE9">
-            <v>2048</v>
-          </cell>
-          <cell r="AF9">
-            <v>2049</v>
-          </cell>
-          <cell r="AG9">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>High-leak-risk industries</v>
-          </cell>
-          <cell r="C10">
-            <v>0</v>
-          </cell>
-          <cell r="D10">
-            <v>0</v>
-          </cell>
-          <cell r="E10">
-            <v>0</v>
-          </cell>
-          <cell r="F10">
-            <v>0</v>
-          </cell>
-          <cell r="G10">
-            <v>0</v>
-          </cell>
-          <cell r="H10">
-            <v>0</v>
-          </cell>
-          <cell r="I10">
-            <v>2.5000000000000022E-2</v>
-          </cell>
-          <cell r="J10">
-            <v>5.0000000000000044E-2</v>
-          </cell>
-          <cell r="K10">
-            <v>9.9999999999999978E-2</v>
-          </cell>
-          <cell r="L10">
-            <v>0.22499999999999998</v>
-          </cell>
-          <cell r="M10">
-            <v>0.48499999999999999</v>
-          </cell>
-          <cell r="N10">
-            <v>0.61</v>
-          </cell>
-          <cell r="O10">
-            <v>0.73499999999999999</v>
-          </cell>
-          <cell r="P10">
-            <v>0.86</v>
-          </cell>
-          <cell r="Q10">
-            <v>1</v>
-          </cell>
-          <cell r="R10">
-            <v>1</v>
-          </cell>
-          <cell r="S10">
-            <v>1</v>
-          </cell>
-          <cell r="T10">
-            <v>1</v>
-          </cell>
-          <cell r="U10">
-            <v>1</v>
-          </cell>
-          <cell r="V10">
-            <v>1</v>
-          </cell>
-          <cell r="W10">
-            <v>1</v>
-          </cell>
-          <cell r="X10">
-            <v>1</v>
-          </cell>
-          <cell r="Y10">
-            <v>1</v>
-          </cell>
-          <cell r="Z10">
-            <v>1</v>
-          </cell>
-          <cell r="AA10">
-            <v>1</v>
-          </cell>
-          <cell r="AB10">
-            <v>1</v>
-          </cell>
-          <cell r="AC10">
-            <v>1</v>
-          </cell>
-          <cell r="AD10">
-            <v>1</v>
-          </cell>
-          <cell r="AE10">
-            <v>1</v>
-          </cell>
-          <cell r="AF10">
-            <v>1</v>
-          </cell>
-          <cell r="AG10">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>Other industries</v>
-          </cell>
-          <cell r="C11">
-            <v>0.7</v>
-          </cell>
-          <cell r="D11">
-            <v>0.7</v>
-          </cell>
-          <cell r="E11">
-            <v>0.7</v>
-          </cell>
-          <cell r="F11">
-            <v>0.7</v>
-          </cell>
-          <cell r="G11">
-            <v>0.7</v>
-          </cell>
-          <cell r="H11">
-            <v>0.7</v>
-          </cell>
-          <cell r="I11">
-            <v>0.7</v>
-          </cell>
-          <cell r="J11">
-            <v>0.77500000000000002</v>
-          </cell>
-          <cell r="K11">
-            <v>0.85</v>
-          </cell>
-          <cell r="L11">
-            <v>0.92500000000000004</v>
-          </cell>
-          <cell r="M11">
-            <v>1</v>
-          </cell>
-          <cell r="N11">
-            <v>1</v>
-          </cell>
-          <cell r="O11">
-            <v>1</v>
-          </cell>
-          <cell r="P11">
-            <v>1</v>
-          </cell>
-          <cell r="Q11">
-            <v>1</v>
-          </cell>
-          <cell r="R11">
-            <v>1</v>
-          </cell>
-          <cell r="S11">
-            <v>1</v>
-          </cell>
-          <cell r="T11">
-            <v>1</v>
-          </cell>
-          <cell r="U11">
-            <v>1</v>
-          </cell>
-          <cell r="V11">
-            <v>1</v>
-          </cell>
-          <cell r="W11">
-            <v>1</v>
-          </cell>
-          <cell r="X11">
-            <v>1</v>
-          </cell>
-          <cell r="Y11">
-            <v>1</v>
-          </cell>
-          <cell r="Z11">
-            <v>1</v>
-          </cell>
-          <cell r="AA11">
-            <v>1</v>
-          </cell>
-          <cell r="AB11">
-            <v>1</v>
-          </cell>
-          <cell r="AC11">
-            <v>1</v>
-          </cell>
-          <cell r="AD11">
-            <v>1</v>
-          </cell>
-          <cell r="AE11">
-            <v>1</v>
-          </cell>
-          <cell r="AF11">
-            <v>1</v>
-          </cell>
-          <cell r="AG11">
-            <v>1</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -2861,7 +2542,7 @@
   <dimension ref="B1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B26"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2978,7 +2659,7 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="19">
         <f>SUM('Chemicals Trade'!Z20,'Chemicals Trade'!Z13)/SUM('Chemicals Trade'!Z13:Z15,'Chemicals Trade'!Z17:Z23)</f>
         <v>2.2390227069887723E-2</v>
       </c>
@@ -4771,7 +4452,7 @@
   <dimension ref="B1:AG11"/>
   <sheetViews>
     <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5185,127 +4866,127 @@
         <v>107</v>
       </c>
       <c r="C10" s="16">
-        <f>1-C5</f>
+        <f t="shared" ref="C10:AG10" si="0">1-C5</f>
         <v>0</v>
       </c>
       <c r="D10" s="16">
-        <f>1-D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E10" s="16">
-        <f>1-E5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F10" s="16">
-        <f>1-F5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="G10" s="16">
-        <f>1-G5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="16">
-        <f>1-H5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="16">
-        <f>1-I5</f>
+        <f t="shared" si="0"/>
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="J10" s="16">
-        <f>1-J5</f>
+        <f t="shared" si="0"/>
         <v>5.0000000000000044E-2</v>
       </c>
       <c r="K10" s="16">
-        <f>1-K5</f>
+        <f t="shared" si="0"/>
         <v>9.9999999999999978E-2</v>
       </c>
       <c r="L10" s="16">
-        <f>1-L5</f>
+        <f t="shared" si="0"/>
         <v>0.22499999999999998</v>
       </c>
       <c r="M10" s="16">
-        <f>1-M5</f>
+        <f t="shared" si="0"/>
         <v>0.48499999999999999</v>
       </c>
       <c r="N10" s="16">
-        <f>1-N5</f>
+        <f t="shared" si="0"/>
         <v>0.61</v>
       </c>
       <c r="O10" s="16">
-        <f>1-O5</f>
+        <f t="shared" si="0"/>
         <v>0.73499999999999999</v>
       </c>
       <c r="P10" s="16">
-        <f>1-P5</f>
+        <f t="shared" si="0"/>
         <v>0.86</v>
       </c>
       <c r="Q10" s="16">
-        <f>1-Q5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="R10" s="16">
-        <f>1-R5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="S10" s="16">
-        <f>1-S5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="T10" s="16">
-        <f>1-T5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="U10" s="16">
-        <f>1-U5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="V10" s="16">
-        <f>1-V5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="W10" s="16">
-        <f>1-W5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="X10" s="16">
-        <f>1-X5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Y10" s="16">
-        <f>1-Y5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="Z10" s="16">
-        <f>1-Z5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AA10" s="16">
-        <f>1-AA5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AB10" s="16">
-        <f>1-AB5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AC10" s="16">
-        <f>1-AC5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AD10" s="16">
-        <f>1-AD5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AE10" s="16">
-        <f>1-AE5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AF10" s="16">
-        <f>1-AF5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AG10" s="16">
-        <f>1-AG5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -5314,127 +4995,127 @@
         <v>106</v>
       </c>
       <c r="C11" s="16">
-        <f>1-C6</f>
+        <f t="shared" ref="C11:AG11" si="1">1-C6</f>
         <v>0.7</v>
       </c>
       <c r="D11" s="16">
-        <f>1-D6</f>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="E11" s="16">
-        <f>1-E6</f>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="F11" s="16">
-        <f>1-F6</f>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="G11" s="16">
-        <f>1-G6</f>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="H11" s="16">
-        <f>1-H6</f>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="I11" s="16">
-        <f>1-I6</f>
+        <f t="shared" si="1"/>
         <v>0.7</v>
       </c>
       <c r="J11" s="16">
-        <f>1-J6</f>
+        <f t="shared" si="1"/>
         <v>0.77500000000000002</v>
       </c>
       <c r="K11" s="16">
-        <f>1-K6</f>
+        <f t="shared" si="1"/>
         <v>0.85</v>
       </c>
       <c r="L11" s="16">
-        <f>1-L6</f>
+        <f t="shared" si="1"/>
         <v>0.92500000000000004</v>
       </c>
       <c r="M11" s="16">
-        <f>1-M6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="N11" s="16">
-        <f>1-N6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O11" s="16">
-        <f>1-O6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="P11" s="16">
-        <f>1-P6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Q11" s="16">
-        <f>1-Q6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="R11" s="16">
-        <f>1-R6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="S11" s="16">
-        <f>1-S6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="T11" s="16">
-        <f>1-T6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="U11" s="16">
-        <f>1-U6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="V11" s="16">
-        <f>1-V6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="W11" s="16">
-        <f>1-W6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="X11" s="16">
-        <f>1-X6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Y11" s="16">
-        <f>1-Y6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="Z11" s="16">
-        <f>1-Z6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AA11" s="16">
-        <f>1-AA6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AB11" s="16">
-        <f>1-AB6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AC11" s="16">
-        <f>1-AC6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AD11" s="16">
-        <f>1-AD6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AE11" s="16">
-        <f>1-AE6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AF11" s="16">
-        <f>1-AF6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="AG11" s="16">
-        <f>1-AG6</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -5455,7 +5136,7 @@
   <dimension ref="A1:AF26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="D2" sqref="D2:AF26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5562,124 +5243,124 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <f>'CBAM Coverage'!$C2*(('CBAM Coverage'!$D2*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D2)*'Allowance Schedule'!AG$11)</f>
+      <c r="C2" s="20">
+        <f>'CBAM Coverage'!C2</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="20">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="20">
+        <f t="shared" ref="E2:AF2" si="0">D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF2" s="20">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -5687,124 +5368,124 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <f>'CBAM Coverage'!$C3*(('CBAM Coverage'!$D3*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D3)*'Allowance Schedule'!AG$11)</f>
+      <c r="C3" s="20">
+        <f>'CBAM Coverage'!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="20">
+        <f t="shared" ref="D3:AF3" si="1">C3</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="X3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AB3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AC3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AE3" s="20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AF3" s="20">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -5812,124 +5493,124 @@
       <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <f>'CBAM Coverage'!$C4*(('CBAM Coverage'!$D4*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D4)*'Allowance Schedule'!AG$11)</f>
+      <c r="C4" s="20">
+        <f>'CBAM Coverage'!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="20">
+        <f t="shared" ref="D4:AF4" si="2">C4</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="X4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE4" s="20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="20">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -5937,124 +5618,124 @@
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <f>'CBAM Coverage'!$C5*(('CBAM Coverage'!$D5*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D5)*'Allowance Schedule'!AG$11)</f>
+      <c r="C5" s="20">
+        <f>'CBAM Coverage'!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="20">
+        <f t="shared" ref="D5:AF5" si="3">C5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="V5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="W5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="X5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="Z5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AB5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AC5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AE5" s="20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AF5" s="20">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -6062,124 +5743,124 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <f>'CBAM Coverage'!$C6*(('CBAM Coverage'!$D6*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D6)*'Allowance Schedule'!AG$11)</f>
+      <c r="C6" s="20">
+        <f>'CBAM Coverage'!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="20">
+        <f t="shared" ref="D6:AF6" si="4">C6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="20">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -6187,124 +5868,124 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <f>'CBAM Coverage'!$C7*(('CBAM Coverage'!$D7*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D7)*'Allowance Schedule'!AG$11)</f>
+      <c r="C7" s="20">
+        <f>'CBAM Coverage'!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="20">
+        <f t="shared" ref="D7:AF7" si="5">C7</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="X7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Z7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AB7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AC7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AE7" s="20">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AF7" s="20">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -6312,124 +5993,124 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="C8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <f>'CBAM Coverage'!$C8*(('CBAM Coverage'!$D8*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D8)*'Allowance Schedule'!AG$11)</f>
+      <c r="C8" s="20">
+        <f>'CBAM Coverage'!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="20">
+        <f t="shared" ref="D8:AF8" si="6">C8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="W8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AC8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE8" s="20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF8" s="20">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -6437,124 +6118,124 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <f>'CBAM Coverage'!$C9*(('CBAM Coverage'!$D9*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D9)*'Allowance Schedule'!AG$11)</f>
+      <c r="C9" s="20">
+        <f>'CBAM Coverage'!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="20">
+        <f t="shared" ref="D9:AF9" si="7">C9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="R9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="X9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="Z9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AE9" s="20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AF9" s="20">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -6562,124 +6243,124 @@
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <f>'CBAM Coverage'!$C10*(('CBAM Coverage'!$D10*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D10)*'Allowance Schedule'!AG$11)</f>
+      <c r="C10" s="20">
+        <f>'CBAM Coverage'!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="20">
+        <f t="shared" ref="D10:AF10" si="8">C10</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="R10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="X10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AB10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="20">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="20">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -6687,124 +6368,124 @@
       <c r="B11" t="s">
         <v>10</v>
       </c>
-      <c r="C11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!D$11)</f>
-        <v>1.5401362460970894E-3</v>
-      </c>
-      <c r="D11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!E$11)</f>
-        <v>1.5401362460970894E-3</v>
-      </c>
-      <c r="E11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!F$11)</f>
-        <v>1.5401362460970894E-3</v>
-      </c>
-      <c r="F11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!G$11)</f>
-        <v>1.5401362460970894E-3</v>
-      </c>
-      <c r="G11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!H$11)</f>
-        <v>1.5401362460970894E-3</v>
-      </c>
-      <c r="H11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!I$11)</f>
-        <v>2.044887056912244E-3</v>
-      </c>
-      <c r="I11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!J$11)</f>
-        <v>2.7146524655235157E-3</v>
-      </c>
-      <c r="J11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!K$11)</f>
-        <v>3.8891686849499389E-3</v>
-      </c>
-      <c r="K11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!L$11)</f>
-        <v>6.5779373368218272E-3</v>
-      </c>
-      <c r="L11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!M$11)</f>
-        <v>1.1992360367095547E-2</v>
-      </c>
-      <c r="M11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!N$11)</f>
-        <v>1.4516114421171318E-2</v>
-      </c>
-      <c r="N11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!O$11)</f>
-        <v>1.7039868475247088E-2</v>
-      </c>
-      <c r="O11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!P$11)</f>
-        <v>1.9563622529322859E-2</v>
-      </c>
-      <c r="P11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!Q$11)</f>
+      <c r="C11" s="20">
+        <f>'CBAM Coverage'!C11</f>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="Q11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!R$11)</f>
+      <c r="D11" s="20">
+        <f t="shared" ref="D11:AF11" si="9">C11</f>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="R11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!S$11)</f>
+      <c r="E11" s="20">
+        <f t="shared" si="9"/>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="S11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!T$11)</f>
+      <c r="F11" s="20">
+        <f t="shared" si="9"/>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="T11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!U$11)</f>
+      <c r="G11" s="20">
+        <f t="shared" si="9"/>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="U11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!V$11)</f>
+      <c r="H11" s="20">
+        <f t="shared" si="9"/>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="V11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!W$11)</f>
+      <c r="I11" s="20">
+        <f t="shared" si="9"/>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="W11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!X$11)</f>
+      <c r="J11" s="20">
+        <f t="shared" si="9"/>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="X11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!Y$11)</f>
+      <c r="K11" s="20">
+        <f t="shared" si="9"/>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="Y11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!Z$11)</f>
+      <c r="L11" s="20">
+        <f t="shared" si="9"/>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="Z11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!AA$11)</f>
+      <c r="M11" s="20">
+        <f t="shared" si="9"/>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="AA11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!AB$11)</f>
+      <c r="N11" s="20">
+        <f t="shared" si="9"/>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="AB11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!AC$11)</f>
+      <c r="O11" s="20">
+        <f t="shared" si="9"/>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="AC11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!AD$11)</f>
+      <c r="P11" s="20">
+        <f t="shared" si="9"/>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="AD11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!AE$11)</f>
+      <c r="Q11" s="20">
+        <f t="shared" si="9"/>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="AE11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!AF$11)</f>
+      <c r="R11" s="20">
+        <f t="shared" si="9"/>
         <v>2.2390227069887723E-2</v>
       </c>
-      <c r="AF11">
-        <f>'CBAM Coverage'!$C11*(('CBAM Coverage'!$D11*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D11)*'Allowance Schedule'!AG$11)</f>
+      <c r="S11" s="20">
+        <f t="shared" si="9"/>
+        <v>2.2390227069887723E-2</v>
+      </c>
+      <c r="T11" s="20">
+        <f t="shared" si="9"/>
+        <v>2.2390227069887723E-2</v>
+      </c>
+      <c r="U11" s="20">
+        <f t="shared" si="9"/>
+        <v>2.2390227069887723E-2</v>
+      </c>
+      <c r="V11" s="20">
+        <f t="shared" si="9"/>
+        <v>2.2390227069887723E-2</v>
+      </c>
+      <c r="W11" s="20">
+        <f t="shared" si="9"/>
+        <v>2.2390227069887723E-2</v>
+      </c>
+      <c r="X11" s="20">
+        <f t="shared" si="9"/>
+        <v>2.2390227069887723E-2</v>
+      </c>
+      <c r="Y11" s="20">
+        <f t="shared" si="9"/>
+        <v>2.2390227069887723E-2</v>
+      </c>
+      <c r="Z11" s="20">
+        <f t="shared" si="9"/>
+        <v>2.2390227069887723E-2</v>
+      </c>
+      <c r="AA11" s="20">
+        <f t="shared" si="9"/>
+        <v>2.2390227069887723E-2</v>
+      </c>
+      <c r="AB11" s="20">
+        <f t="shared" si="9"/>
+        <v>2.2390227069887723E-2</v>
+      </c>
+      <c r="AC11" s="20">
+        <f t="shared" si="9"/>
+        <v>2.2390227069887723E-2</v>
+      </c>
+      <c r="AD11" s="20">
+        <f t="shared" si="9"/>
+        <v>2.2390227069887723E-2</v>
+      </c>
+      <c r="AE11" s="20">
+        <f t="shared" si="9"/>
+        <v>2.2390227069887723E-2</v>
+      </c>
+      <c r="AF11" s="20">
+        <f t="shared" si="9"/>
         <v>2.2390227069887723E-2</v>
       </c>
     </row>
@@ -6812,124 +6493,124 @@
       <c r="B12" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <f>'CBAM Coverage'!$C12*(('CBAM Coverage'!$D12*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D12)*'Allowance Schedule'!AG$11)</f>
+      <c r="C12" s="20">
+        <f>'CBAM Coverage'!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="20">
+        <f t="shared" ref="D12:AF12" si="10">C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="20">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="20">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
@@ -6937,124 +6618,124 @@
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <f>'CBAM Coverage'!$C13*(('CBAM Coverage'!$D13*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D13)*'Allowance Schedule'!AG$11)</f>
+      <c r="C13" s="20">
+        <f>'CBAM Coverage'!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="20">
+        <f t="shared" ref="D13:AF13" si="11">C13</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE13" s="20">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF13" s="20">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -7062,124 +6743,124 @@
       <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="C14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!I$11)</f>
-        <v>2.5000000000000022E-2</v>
-      </c>
-      <c r="I14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!J$11)</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="J14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!K$11)</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="K14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!L$11)</f>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="L14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!M$11)</f>
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="M14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!N$11)</f>
-        <v>0.61</v>
-      </c>
-      <c r="N14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!O$11)</f>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="O14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!P$11)</f>
-        <v>0.86</v>
-      </c>
-      <c r="P14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!Q$11)</f>
-        <v>1</v>
-      </c>
-      <c r="Q14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!R$11)</f>
-        <v>1</v>
-      </c>
-      <c r="R14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!S$11)</f>
-        <v>1</v>
-      </c>
-      <c r="S14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!T$11)</f>
-        <v>1</v>
-      </c>
-      <c r="T14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!U$11)</f>
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!V$11)</f>
-        <v>1</v>
-      </c>
-      <c r="V14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!W$11)</f>
-        <v>1</v>
-      </c>
-      <c r="W14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!X$11)</f>
-        <v>1</v>
-      </c>
-      <c r="X14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!Y$11)</f>
-        <v>1</v>
-      </c>
-      <c r="Y14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!Z$11)</f>
-        <v>1</v>
-      </c>
-      <c r="Z14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!AA$11)</f>
-        <v>1</v>
-      </c>
-      <c r="AA14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!AB$11)</f>
-        <v>1</v>
-      </c>
-      <c r="AB14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!AC$11)</f>
-        <v>1</v>
-      </c>
-      <c r="AC14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!AD$11)</f>
-        <v>1</v>
-      </c>
-      <c r="AD14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!AE$11)</f>
-        <v>1</v>
-      </c>
-      <c r="AE14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!AF$11)</f>
-        <v>1</v>
-      </c>
-      <c r="AF14">
-        <f>'CBAM Coverage'!$C14*(('CBAM Coverage'!$D14*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D14)*'Allowance Schedule'!AG$11)</f>
+      <c r="C14" s="20">
+        <f>'CBAM Coverage'!C14</f>
+        <v>1</v>
+      </c>
+      <c r="D14" s="20">
+        <f t="shared" ref="D14:AF14" si="12">C14</f>
+        <v>1</v>
+      </c>
+      <c r="E14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="H14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="I14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="M14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="O14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="P14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="R14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="S14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="T14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="U14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="V14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="W14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="X14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Y14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Z14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AA14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AB14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AC14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AD14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AE14" s="20">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="AF14" s="20">
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
     </row>
@@ -7187,124 +6868,124 @@
       <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!I$11)</f>
-        <v>2.5000000000000022E-2</v>
-      </c>
-      <c r="I15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!J$11)</f>
-        <v>5.0000000000000044E-2</v>
-      </c>
-      <c r="J15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!K$11)</f>
-        <v>9.9999999999999978E-2</v>
-      </c>
-      <c r="K15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!L$11)</f>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="L15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!M$11)</f>
-        <v>0.48499999999999999</v>
-      </c>
-      <c r="M15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!N$11)</f>
-        <v>0.61</v>
-      </c>
-      <c r="N15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!O$11)</f>
-        <v>0.73499999999999999</v>
-      </c>
-      <c r="O15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!P$11)</f>
-        <v>0.86</v>
-      </c>
-      <c r="P15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!Q$11)</f>
-        <v>1</v>
-      </c>
-      <c r="Q15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!R$11)</f>
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!S$11)</f>
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!T$11)</f>
-        <v>1</v>
-      </c>
-      <c r="T15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!U$11)</f>
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!V$11)</f>
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!W$11)</f>
-        <v>1</v>
-      </c>
-      <c r="W15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!X$11)</f>
-        <v>1</v>
-      </c>
-      <c r="X15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!Y$11)</f>
-        <v>1</v>
-      </c>
-      <c r="Y15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!Z$11)</f>
-        <v>1</v>
-      </c>
-      <c r="Z15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!AA$11)</f>
-        <v>1</v>
-      </c>
-      <c r="AA15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!AB$11)</f>
-        <v>1</v>
-      </c>
-      <c r="AB15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!AC$11)</f>
-        <v>1</v>
-      </c>
-      <c r="AC15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!AD$11)</f>
-        <v>1</v>
-      </c>
-      <c r="AD15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!AE$11)</f>
-        <v>1</v>
-      </c>
-      <c r="AE15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!AF$11)</f>
-        <v>1</v>
-      </c>
-      <c r="AF15">
-        <f>'CBAM Coverage'!$C15*(('CBAM Coverage'!$D15*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D15)*'Allowance Schedule'!AG$11)</f>
+      <c r="C15" s="20">
+        <f>'CBAM Coverage'!C15</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="20">
+        <f t="shared" ref="D15:AF15" si="13">C15</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="H15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="I15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="K15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="L15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="M15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="N15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="O15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="P15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="R15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="S15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="T15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="V15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="W15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="X15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Y15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="Z15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AA15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AB15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AC15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AD15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AE15" s="20">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="AF15" s="20">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
     </row>
@@ -7312,124 +6993,124 @@
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!I$11)</f>
-        <v>1.176371224042852E-2</v>
-      </c>
-      <c r="I16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!J$11)</f>
-        <v>2.352742448085704E-2</v>
-      </c>
-      <c r="J16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!K$11)</f>
-        <v>4.7054848961714031E-2</v>
-      </c>
-      <c r="K16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!L$11)</f>
-        <v>0.10587341016385658</v>
-      </c>
-      <c r="L16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!M$11)</f>
-        <v>0.22821601746431308</v>
-      </c>
-      <c r="M16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!N$11)</f>
-        <v>0.28703457866645565</v>
-      </c>
-      <c r="N16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!O$11)</f>
-        <v>0.34585313986859817</v>
-      </c>
-      <c r="O16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!P$11)</f>
-        <v>0.40467170107074074</v>
-      </c>
-      <c r="P16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!Q$11)</f>
+      <c r="C16" s="20">
+        <f>'CBAM Coverage'!C16</f>
         <v>0.47054848961714041</v>
       </c>
-      <c r="Q16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!R$11)</f>
+      <c r="D16" s="20">
+        <f t="shared" ref="D16:AF16" si="14">C16</f>
         <v>0.47054848961714041</v>
       </c>
-      <c r="R16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!S$11)</f>
+      <c r="E16" s="20">
+        <f t="shared" si="14"/>
         <v>0.47054848961714041</v>
       </c>
-      <c r="S16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!T$11)</f>
+      <c r="F16" s="20">
+        <f t="shared" si="14"/>
         <v>0.47054848961714041</v>
       </c>
-      <c r="T16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!U$11)</f>
+      <c r="G16" s="20">
+        <f t="shared" si="14"/>
         <v>0.47054848961714041</v>
       </c>
-      <c r="U16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!V$11)</f>
+      <c r="H16" s="20">
+        <f t="shared" si="14"/>
         <v>0.47054848961714041</v>
       </c>
-      <c r="V16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!W$11)</f>
+      <c r="I16" s="20">
+        <f t="shared" si="14"/>
         <v>0.47054848961714041</v>
       </c>
-      <c r="W16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!X$11)</f>
+      <c r="J16" s="20">
+        <f t="shared" si="14"/>
         <v>0.47054848961714041</v>
       </c>
-      <c r="X16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!Y$11)</f>
+      <c r="K16" s="20">
+        <f t="shared" si="14"/>
         <v>0.47054848961714041</v>
       </c>
-      <c r="Y16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!Z$11)</f>
+      <c r="L16" s="20">
+        <f t="shared" si="14"/>
         <v>0.47054848961714041</v>
       </c>
-      <c r="Z16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!AA$11)</f>
+      <c r="M16" s="20">
+        <f t="shared" si="14"/>
         <v>0.47054848961714041</v>
       </c>
-      <c r="AA16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!AB$11)</f>
+      <c r="N16" s="20">
+        <f t="shared" si="14"/>
         <v>0.47054848961714041</v>
       </c>
-      <c r="AB16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!AC$11)</f>
+      <c r="O16" s="20">
+        <f t="shared" si="14"/>
         <v>0.47054848961714041</v>
       </c>
-      <c r="AC16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!AD$11)</f>
+      <c r="P16" s="20">
+        <f t="shared" si="14"/>
         <v>0.47054848961714041</v>
       </c>
-      <c r="AD16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!AE$11)</f>
+      <c r="Q16" s="20">
+        <f t="shared" si="14"/>
         <v>0.47054848961714041</v>
       </c>
-      <c r="AE16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!AF$11)</f>
+      <c r="R16" s="20">
+        <f t="shared" si="14"/>
         <v>0.47054848961714041</v>
       </c>
-      <c r="AF16">
-        <f>'CBAM Coverage'!$C16*(('CBAM Coverage'!$D16*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D16)*'Allowance Schedule'!AG$11)</f>
+      <c r="S16" s="20">
+        <f t="shared" si="14"/>
+        <v>0.47054848961714041</v>
+      </c>
+      <c r="T16" s="20">
+        <f t="shared" si="14"/>
+        <v>0.47054848961714041</v>
+      </c>
+      <c r="U16" s="20">
+        <f t="shared" si="14"/>
+        <v>0.47054848961714041</v>
+      </c>
+      <c r="V16" s="20">
+        <f t="shared" si="14"/>
+        <v>0.47054848961714041</v>
+      </c>
+      <c r="W16" s="20">
+        <f t="shared" si="14"/>
+        <v>0.47054848961714041</v>
+      </c>
+      <c r="X16" s="20">
+        <f t="shared" si="14"/>
+        <v>0.47054848961714041</v>
+      </c>
+      <c r="Y16" s="20">
+        <f t="shared" si="14"/>
+        <v>0.47054848961714041</v>
+      </c>
+      <c r="Z16" s="20">
+        <f t="shared" si="14"/>
+        <v>0.47054848961714041</v>
+      </c>
+      <c r="AA16" s="20">
+        <f t="shared" si="14"/>
+        <v>0.47054848961714041</v>
+      </c>
+      <c r="AB16" s="20">
+        <f t="shared" si="14"/>
+        <v>0.47054848961714041</v>
+      </c>
+      <c r="AC16" s="20">
+        <f t="shared" si="14"/>
+        <v>0.47054848961714041</v>
+      </c>
+      <c r="AD16" s="20">
+        <f t="shared" si="14"/>
+        <v>0.47054848961714041</v>
+      </c>
+      <c r="AE16" s="20">
+        <f t="shared" si="14"/>
+        <v>0.47054848961714041</v>
+      </c>
+      <c r="AF16" s="20">
+        <f t="shared" si="14"/>
         <v>0.47054848961714041</v>
       </c>
     </row>
@@ -7437,124 +7118,124 @@
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <f>'CBAM Coverage'!$C17*(('CBAM Coverage'!$D17*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D17)*'Allowance Schedule'!AG$11)</f>
+      <c r="C17" s="20">
+        <f>'CBAM Coverage'!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="20">
+        <f t="shared" ref="D17:AF17" si="15">C17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="L17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="M17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="P17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="X17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="Z17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AB17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AC17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AE17" s="20">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AF17" s="20">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
@@ -7562,124 +7243,124 @@
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <f>'CBAM Coverage'!$C18*(('CBAM Coverage'!$D18*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D18)*'Allowance Schedule'!AG$11)</f>
+      <c r="C18" s="20">
+        <f>'CBAM Coverage'!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="20">
+        <f t="shared" ref="D18:AF18" si="16">C18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="L18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="O18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="P18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="R18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="W18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="X18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AB18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="20">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="20">
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -7687,124 +7368,124 @@
       <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <f>'CBAM Coverage'!$C19*(('CBAM Coverage'!$D19*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D19)*'Allowance Schedule'!AG$11)</f>
+      <c r="C19" s="20">
+        <f>'CBAM Coverage'!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="20">
+        <f t="shared" ref="D19:AF19" si="17">C19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="P19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="R19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="V19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="W19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="X19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AB19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="20">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="20">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
@@ -7812,124 +7493,124 @@
       <c r="B20" t="s">
         <v>19</v>
       </c>
-      <c r="C20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <f>'CBAM Coverage'!$C20*(('CBAM Coverage'!$D20*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D20)*'Allowance Schedule'!AG$11)</f>
+      <c r="C20" s="20">
+        <f>'CBAM Coverage'!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="20">
+        <f t="shared" ref="D20:AF20" si="18">C20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="X20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AB20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="20">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="20">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -7937,124 +7618,124 @@
       <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <f>'CBAM Coverage'!$C21*(('CBAM Coverage'!$D21*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D21)*'Allowance Schedule'!AG$11)</f>
+      <c r="C21" s="20">
+        <f>'CBAM Coverage'!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="20">
+        <f t="shared" ref="D21:AF21" si="19">C21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="F21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="K21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="O21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="P21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="R21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="U21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="V21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="W21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="X21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AB21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="20">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="20">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -8062,124 +7743,124 @@
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <f>'CBAM Coverage'!$C22*(('CBAM Coverage'!$D22*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D22)*'Allowance Schedule'!AG$11)</f>
+      <c r="C22" s="20">
+        <f>'CBAM Coverage'!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="20">
+        <f t="shared" ref="D22:AF22" si="20">C22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="O22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="V22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="X22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="20">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="20">
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
@@ -8187,124 +7868,124 @@
       <c r="B23" t="s">
         <v>22</v>
       </c>
-      <c r="C23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <f>'CBAM Coverage'!$C23*(('CBAM Coverage'!$D23*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D23)*'Allowance Schedule'!AG$11)</f>
+      <c r="C23" s="20">
+        <f>'CBAM Coverage'!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="20">
+        <f t="shared" ref="D23:AF23" si="21">C23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="O23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="P23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="R23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="W23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="X23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AB23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="20">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="20">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
@@ -8312,124 +7993,124 @@
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <f>'CBAM Coverage'!$C24*(('CBAM Coverage'!$D24*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D24)*'Allowance Schedule'!AG$11)</f>
+      <c r="C24" s="20">
+        <f>'CBAM Coverage'!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="20">
+        <f t="shared" ref="D24:AF24" si="22">C24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="F24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="P24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="R24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="X24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AB24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="20">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="20">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
     </row>
@@ -8437,124 +8118,124 @@
       <c r="B25" t="s">
         <v>24</v>
       </c>
-      <c r="C25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <f>'CBAM Coverage'!$C25*(('CBAM Coverage'!$D25*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D25)*'Allowance Schedule'!AG$11)</f>
+      <c r="C25" s="20">
+        <f>'CBAM Coverage'!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="20">
+        <f t="shared" ref="D25:AF25" si="23">C25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="K25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="L25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="O25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="P25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="R25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="V25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="W25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="X25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="Z25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AB25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AC25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AD25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AE25" s="20">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="AF25" s="20">
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
@@ -8562,124 +8243,124 @@
       <c r="B26" t="s">
         <v>25</v>
       </c>
-      <c r="C26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!D$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!D$11)</f>
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!E$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!E$11)</f>
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!F$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!F$11)</f>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!G$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!G$11)</f>
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!H$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!H$11)</f>
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!I$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!I$11)</f>
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!J$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!J$11)</f>
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!K$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!K$11)</f>
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!L$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!L$11)</f>
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!M$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!M$11)</f>
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!N$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!N$11)</f>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!O$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!O$11)</f>
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!P$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!P$11)</f>
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!Q$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!Q$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!R$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!R$11)</f>
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!S$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!S$11)</f>
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!T$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!T$11)</f>
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!U$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!U$11)</f>
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!V$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!V$11)</f>
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!W$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!W$11)</f>
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!X$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!X$11)</f>
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!Y$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!Y$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!Z$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!Z$11)</f>
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!AA$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!AA$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!AB$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!AB$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!AC$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!AC$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!AD$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!AD$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!AE$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!AE$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!AF$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!AF$11)</f>
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <f>'CBAM Coverage'!$C26*(('CBAM Coverage'!$D26*'Allowance Schedule'!AG$10)+(1-'CBAM Coverage'!$D26)*'Allowance Schedule'!AG$11)</f>
+      <c r="C26" s="20">
+        <f>'CBAM Coverage'!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="20">
+        <f t="shared" ref="D26:AF26" si="24">C26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="L26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="M26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="N26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="O26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="P26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="R26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="X26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="Z26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AB26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AC26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AD26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AE26" s="20">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="AF26" s="20">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -8695,8 +8376,8 @@
   </sheetPr>
   <dimension ref="A1:AE28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9931,55 +9612,55 @@
       </c>
       <c r="B11" s="3">
         <f>Calcs!C11</f>
-        <v>1.5401362460970894E-3</v>
+        <v>2.2390227069887723E-2</v>
       </c>
       <c r="C11" s="3">
         <f>Calcs!D11</f>
-        <v>1.5401362460970894E-3</v>
+        <v>2.2390227069887723E-2</v>
       </c>
       <c r="D11" s="3">
         <f>Calcs!E11</f>
-        <v>1.5401362460970894E-3</v>
+        <v>2.2390227069887723E-2</v>
       </c>
       <c r="E11" s="3">
         <f>Calcs!F11</f>
-        <v>1.5401362460970894E-3</v>
+        <v>2.2390227069887723E-2</v>
       </c>
       <c r="F11" s="3">
         <f>Calcs!G11</f>
-        <v>1.5401362460970894E-3</v>
+        <v>2.2390227069887723E-2</v>
       </c>
       <c r="G11" s="3">
         <f>Calcs!H11</f>
-        <v>2.044887056912244E-3</v>
+        <v>2.2390227069887723E-2</v>
       </c>
       <c r="H11" s="3">
         <f>Calcs!I11</f>
-        <v>2.7146524655235157E-3</v>
+        <v>2.2390227069887723E-2</v>
       </c>
       <c r="I11" s="3">
         <f>Calcs!J11</f>
-        <v>3.8891686849499389E-3</v>
+        <v>2.2390227069887723E-2</v>
       </c>
       <c r="J11" s="3">
         <f>Calcs!K11</f>
-        <v>6.5779373368218272E-3</v>
+        <v>2.2390227069887723E-2</v>
       </c>
       <c r="K11" s="3">
         <f>Calcs!L11</f>
-        <v>1.1992360367095547E-2</v>
+        <v>2.2390227069887723E-2</v>
       </c>
       <c r="L11" s="3">
         <f>Calcs!M11</f>
-        <v>1.4516114421171318E-2</v>
+        <v>2.2390227069887723E-2</v>
       </c>
       <c r="M11" s="3">
         <f>Calcs!N11</f>
-        <v>1.7039868475247088E-2</v>
+        <v>2.2390227069887723E-2</v>
       </c>
       <c r="N11" s="3">
         <f>Calcs!O11</f>
-        <v>1.9563622529322859E-2</v>
+        <v>2.2390227069887723E-2</v>
       </c>
       <c r="O11" s="3">
         <f>Calcs!P11</f>
@@ -10306,55 +9987,55 @@
       </c>
       <c r="B14" s="3">
         <f>Calcs!C14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14" s="3">
         <f>Calcs!D14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="3">
         <f>Calcs!E14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="3">
         <f>Calcs!F14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="3">
         <f>Calcs!G14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" s="3">
         <f>Calcs!H14</f>
-        <v>2.5000000000000022E-2</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <f>Calcs!I14</f>
-        <v>5.0000000000000044E-2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="3">
         <f>Calcs!J14</f>
-        <v>9.9999999999999978E-2</v>
+        <v>1</v>
       </c>
       <c r="J14" s="3">
         <f>Calcs!K14</f>
-        <v>0.22499999999999998</v>
+        <v>1</v>
       </c>
       <c r="K14" s="3">
         <f>Calcs!L14</f>
-        <v>0.48499999999999999</v>
+        <v>1</v>
       </c>
       <c r="L14" s="3">
         <f>Calcs!M14</f>
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="M14" s="3">
         <f>Calcs!N14</f>
-        <v>0.73499999999999999</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3">
         <f>Calcs!O14</f>
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O14" s="3">
         <f>Calcs!P14</f>
@@ -10431,55 +10112,55 @@
       </c>
       <c r="B15" s="3">
         <f>Calcs!C15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="3">
         <f>Calcs!D15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <f>Calcs!E15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="3">
         <f>Calcs!F15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="3">
         <f>Calcs!G15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="3">
         <f>Calcs!H15</f>
-        <v>2.5000000000000022E-2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
         <f>Calcs!I15</f>
-        <v>5.0000000000000044E-2</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
         <f>Calcs!J15</f>
-        <v>9.9999999999999978E-2</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3">
         <f>Calcs!K15</f>
-        <v>0.22499999999999998</v>
+        <v>1</v>
       </c>
       <c r="K15" s="3">
         <f>Calcs!L15</f>
-        <v>0.48499999999999999</v>
+        <v>1</v>
       </c>
       <c r="L15" s="3">
         <f>Calcs!M15</f>
-        <v>0.61</v>
+        <v>1</v>
       </c>
       <c r="M15" s="3">
         <f>Calcs!N15</f>
-        <v>0.73499999999999999</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3">
         <f>Calcs!O15</f>
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O15" s="3">
         <f>Calcs!P15</f>
@@ -10556,55 +10237,55 @@
       </c>
       <c r="B16" s="3">
         <f>Calcs!C16</f>
-        <v>0</v>
+        <v>0.47054848961714041</v>
       </c>
       <c r="C16" s="3">
         <f>Calcs!D16</f>
-        <v>0</v>
+        <v>0.47054848961714041</v>
       </c>
       <c r="D16" s="3">
         <f>Calcs!E16</f>
-        <v>0</v>
+        <v>0.47054848961714041</v>
       </c>
       <c r="E16" s="3">
         <f>Calcs!F16</f>
-        <v>0</v>
+        <v>0.47054848961714041</v>
       </c>
       <c r="F16" s="3">
         <f>Calcs!G16</f>
-        <v>0</v>
+        <v>0.47054848961714041</v>
       </c>
       <c r="G16" s="3">
         <f>Calcs!H16</f>
-        <v>1.176371224042852E-2</v>
+        <v>0.47054848961714041</v>
       </c>
       <c r="H16" s="3">
         <f>Calcs!I16</f>
-        <v>2.352742448085704E-2</v>
+        <v>0.47054848961714041</v>
       </c>
       <c r="I16" s="3">
         <f>Calcs!J16</f>
-        <v>4.7054848961714031E-2</v>
+        <v>0.47054848961714041</v>
       </c>
       <c r="J16" s="3">
         <f>Calcs!K16</f>
-        <v>0.10587341016385658</v>
+        <v>0.47054848961714041</v>
       </c>
       <c r="K16" s="3">
         <f>Calcs!L16</f>
-        <v>0.22821601746431308</v>
+        <v>0.47054848961714041</v>
       </c>
       <c r="L16" s="3">
         <f>Calcs!M16</f>
-        <v>0.28703457866645565</v>
+        <v>0.47054848961714041</v>
       </c>
       <c r="M16" s="3">
         <f>Calcs!N16</f>
-        <v>0.34585313986859817</v>
+        <v>0.47054848961714041</v>
       </c>
       <c r="N16" s="3">
         <f>Calcs!O16</f>
-        <v>0.40467170107074074</v>
+        <v>0.47054848961714041</v>
       </c>
       <c r="O16" s="3">
         <f>Calcs!P16</f>
